--- a/resource/kobe_books/shop_list.xlsx
+++ b/resource/kobe_books/shop_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/Desktop/kobe_books/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/kobe_books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDE6A9D-150A-5A46-901B-FEF3CBFF90C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5158B1B5-6B65-4344-9146-6F7AD36EDD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="2620" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="207">
   <si>
     <t>ページ</t>
   </si>
@@ -656,6 +656,15 @@
   </si>
   <si>
     <t>14:00～翌3:00</t>
+  </si>
+  <si>
+    <t>NEW/復活</t>
+  </si>
+  <si>
+    <t>復活</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
@@ -1610,20 +1619,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1637,13 +1646,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1656,11 +1668,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1673,11 +1685,11 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1691,10 +1703,13 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1707,11 +1722,11 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1724,11 +1739,11 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1741,11 +1756,11 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1759,10 +1774,13 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1775,11 +1793,11 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1792,11 +1810,11 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1809,11 +1827,11 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1826,11 +1844,11 @@
       <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1843,11 +1861,11 @@
       <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1860,11 +1878,11 @@
       <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1877,11 +1895,11 @@
       <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21">
+    <row r="16" spans="1:7" ht="21">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1894,11 +1912,11 @@
       <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1911,11 +1929,11 @@
       <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1928,11 +1946,11 @@
       <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1946,10 +1964,13 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1962,11 +1983,11 @@
       <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1979,11 +2000,11 @@
       <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1996,11 +2017,11 @@
       <c r="D22" t="s">
         <v>67</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2013,11 +2034,11 @@
       <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2031,10 +2052,13 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2048,10 +2072,13 @@
         <v>75</v>
       </c>
       <c r="E25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2064,11 +2091,11 @@
       <c r="D26" t="s">
         <v>77</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21">
+    <row r="27" spans="1:6" ht="21">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2081,11 +2108,11 @@
       <c r="D27" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2098,11 +2125,11 @@
       <c r="D28" t="s">
         <v>83</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="21">
+    <row r="29" spans="1:6" ht="21">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2115,11 +2142,11 @@
       <c r="D29" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2132,11 +2159,11 @@
       <c r="D30" t="s">
         <v>89</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="21">
+    <row r="31" spans="1:6" ht="21">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2149,11 +2176,11 @@
       <c r="D31" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="42">
+    <row r="32" spans="1:6" ht="42">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2166,11 +2193,11 @@
       <c r="D32" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2183,11 +2210,11 @@
       <c r="D33" t="s">
         <v>97</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2200,11 +2227,11 @@
       <c r="D34" t="s">
         <v>99</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="42">
+    <row r="35" spans="1:6" ht="42">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2217,11 +2244,14 @@
       <c r="D35" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2235,10 +2265,13 @@
         <v>105</v>
       </c>
       <c r="E36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2251,11 +2284,11 @@
       <c r="D37" t="s">
         <v>107</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2269,10 +2302,13 @@
         <v>109</v>
       </c>
       <c r="E38" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2285,11 +2321,11 @@
       <c r="D39" t="s">
         <v>112</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2302,11 +2338,11 @@
       <c r="D40" t="s">
         <v>115</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="42">
+    <row r="41" spans="1:6" ht="42">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2319,11 +2355,11 @@
       <c r="D41" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2336,11 +2372,11 @@
       <c r="D42" t="s">
         <v>120</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2353,11 +2389,11 @@
       <c r="D43" t="s">
         <v>123</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2370,11 +2406,11 @@
       <c r="D44" t="s">
         <v>125</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2388,10 +2424,13 @@
         <v>128</v>
       </c>
       <c r="E45" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2404,11 +2443,11 @@
       <c r="D46" t="s">
         <v>131</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2421,11 +2460,11 @@
       <c r="D47" t="s">
         <v>134</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -2439,10 +2478,13 @@
         <v>138</v>
       </c>
       <c r="E48" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -2456,10 +2498,13 @@
         <v>141</v>
       </c>
       <c r="E49" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>136</v>
       </c>
@@ -2473,10 +2518,13 @@
         <v>144</v>
       </c>
       <c r="E50" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -2489,11 +2537,11 @@
       <c r="D51" t="s">
         <v>147</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>136</v>
       </c>
@@ -2507,10 +2555,13 @@
         <v>149</v>
       </c>
       <c r="E52" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="21">
+    <row r="53" spans="1:6" ht="21">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -2523,11 +2574,11 @@
       <c r="D53" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="21">
+    <row r="54" spans="1:6" ht="21">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -2540,11 +2591,11 @@
       <c r="D54" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -2557,11 +2608,11 @@
       <c r="D55" t="s">
         <v>156</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -2574,11 +2625,11 @@
       <c r="D56" t="s">
         <v>160</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -2591,11 +2642,11 @@
       <c r="D57" t="s">
         <v>162</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>158</v>
       </c>
@@ -2609,10 +2660,13 @@
         <v>165</v>
       </c>
       <c r="E58" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>158</v>
       </c>
@@ -2626,10 +2680,13 @@
         <v>167</v>
       </c>
       <c r="E59" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="21">
+    <row r="60" spans="1:6" ht="21">
       <c r="A60" t="s">
         <v>158</v>
       </c>
@@ -2642,11 +2699,11 @@
       <c r="D60" t="s">
         <v>169</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -2660,10 +2717,13 @@
         <v>172</v>
       </c>
       <c r="E61" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -2677,10 +2737,13 @@
         <v>175</v>
       </c>
       <c r="E62" t="s">
+        <v>206</v>
+      </c>
+      <c r="F62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>158</v>
       </c>
@@ -2693,11 +2756,11 @@
       <c r="D63" t="s">
         <v>178</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="21">
+    <row r="64" spans="1:6" ht="21">
       <c r="A64" t="s">
         <v>158</v>
       </c>
@@ -2710,11 +2773,14 @@
       <c r="D64" t="s">
         <v>180</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
+        <v>206</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>158</v>
       </c>
@@ -2727,11 +2793,11 @@
       <c r="D65" t="s">
         <v>183</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>158</v>
       </c>
@@ -2744,11 +2810,11 @@
       <c r="D66" t="s">
         <v>183</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -2762,10 +2828,13 @@
         <v>187</v>
       </c>
       <c r="E67" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -2778,11 +2847,11 @@
       <c r="D68" t="s">
         <v>190</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>188</v>
       </c>
@@ -2796,10 +2865,13 @@
         <v>193</v>
       </c>
       <c r="E69" t="s">
+        <v>206</v>
+      </c>
+      <c r="F69" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>188</v>
       </c>
@@ -2812,11 +2884,11 @@
       <c r="D70" t="s">
         <v>196</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -2830,10 +2902,13 @@
         <v>199</v>
       </c>
       <c r="E71" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>188</v>
       </c>
@@ -2847,6 +2922,9 @@
         <v>202</v>
       </c>
       <c r="E72" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" t="s">
         <v>203</v>
       </c>
     </row>

--- a/resource/kobe_books/shop_list.xlsx
+++ b/resource/kobe_books/shop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/kobe_books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5158B1B5-6B65-4344-9146-6F7AD36EDD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1C43DA-4BED-A449-B159-DAA8AE1A0A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="2620" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="2620" windowWidth="37460" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="211">
   <si>
     <t>ページ</t>
   </si>
@@ -665,6 +665,19 @@
   </si>
   <si>
     <t>NEW</t>
+  </si>
+  <si>
+    <t>期間延長日</t>
+  </si>
+  <si>
+    <t>閉店フラグ</t>
+  </si>
+  <si>
+    <t>お知らせ</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1619,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1630,9 +1643,11 @@
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="51.42578125" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
+    <col min="8" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1654,8 +1669,17 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1671,8 +1695,17 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1688,8 +1721,17 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1708,8 +1750,17 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1725,8 +1776,17 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1742,8 +1802,17 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1759,8 +1828,17 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1779,8 +1857,17 @@
       <c r="F8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1796,8 +1883,17 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1813,8 +1909,17 @@
       <c r="F10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>210</v>
+      </c>
+      <c r="I10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1830,8 +1935,17 @@
       <c r="F11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1847,8 +1961,17 @@
       <c r="F12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1864,8 +1987,17 @@
       <c r="F13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" t="s">
+        <v>210</v>
+      </c>
+      <c r="J13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1881,8 +2013,17 @@
       <c r="F14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>210</v>
+      </c>
+      <c r="I14" t="s">
+        <v>210</v>
+      </c>
+      <c r="J14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1898,8 +2039,17 @@
       <c r="F15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="21">
+      <c r="H15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1915,8 +2065,17 @@
       <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1932,8 +2091,17 @@
       <c r="F17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1949,8 +2117,17 @@
       <c r="F18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" t="s">
+        <v>210</v>
+      </c>
+      <c r="J18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1969,8 +2146,17 @@
       <c r="F19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1986,8 +2172,17 @@
       <c r="F20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" t="s">
+        <v>210</v>
+      </c>
+      <c r="J20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2003,8 +2198,17 @@
       <c r="F21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2020,8 +2224,17 @@
       <c r="F22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2037,8 +2250,17 @@
       <c r="F23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2057,8 +2279,17 @@
       <c r="F24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2077,8 +2308,17 @@
       <c r="F25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2094,8 +2334,17 @@
       <c r="F26" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="21">
+      <c r="H26" t="s">
+        <v>210</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2111,8 +2360,17 @@
       <c r="F27" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27" t="s">
+        <v>210</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2128,8 +2386,17 @@
       <c r="F28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="21">
+      <c r="H28" t="s">
+        <v>210</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2145,8 +2412,17 @@
       <c r="F29" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2162,8 +2438,17 @@
       <c r="F30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="21">
+      <c r="H30" t="s">
+        <v>210</v>
+      </c>
+      <c r="I30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2179,8 +2464,17 @@
       <c r="F31" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="42">
+      <c r="H31" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="42">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2196,8 +2490,17 @@
       <c r="F32" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2213,8 +2516,17 @@
       <c r="F33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33" t="s">
+        <v>210</v>
+      </c>
+      <c r="I33" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2230,8 +2542,17 @@
       <c r="F34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="42">
+      <c r="H34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="42">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2250,8 +2571,17 @@
       <c r="F35" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2270,8 +2600,17 @@
       <c r="F36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36" t="s">
+        <v>210</v>
+      </c>
+      <c r="I36" t="s">
+        <v>210</v>
+      </c>
+      <c r="J36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2287,8 +2626,17 @@
       <c r="F37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" t="s">
+        <v>210</v>
+      </c>
+      <c r="J37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2307,8 +2655,17 @@
       <c r="F38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38" t="s">
+        <v>210</v>
+      </c>
+      <c r="I38" t="s">
+        <v>210</v>
+      </c>
+      <c r="J38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2324,8 +2681,17 @@
       <c r="F39" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="H39" t="s">
+        <v>210</v>
+      </c>
+      <c r="I39" t="s">
+        <v>210</v>
+      </c>
+      <c r="J39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2341,8 +2707,17 @@
       <c r="F40" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="42">
+      <c r="H40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I40" t="s">
+        <v>210</v>
+      </c>
+      <c r="J40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="42">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2358,8 +2733,17 @@
       <c r="F41" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" t="s">
+        <v>210</v>
+      </c>
+      <c r="J41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2375,8 +2759,17 @@
       <c r="F42" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" t="s">
+        <v>210</v>
+      </c>
+      <c r="J42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2392,8 +2785,17 @@
       <c r="F43" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43" t="s">
+        <v>210</v>
+      </c>
+      <c r="I43" t="s">
+        <v>210</v>
+      </c>
+      <c r="J43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2409,8 +2811,17 @@
       <c r="F44" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44" t="s">
+        <v>210</v>
+      </c>
+      <c r="I44" t="s">
+        <v>210</v>
+      </c>
+      <c r="J44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2429,8 +2840,17 @@
       <c r="F45" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" t="s">
+        <v>210</v>
+      </c>
+      <c r="J45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2446,8 +2866,17 @@
       <c r="F46" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46" t="s">
+        <v>210</v>
+      </c>
+      <c r="I46" t="s">
+        <v>210</v>
+      </c>
+      <c r="J46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2463,8 +2892,17 @@
       <c r="F47" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47" t="s">
+        <v>210</v>
+      </c>
+      <c r="J47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -2483,8 +2921,17 @@
       <c r="F48" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="H48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I48" t="s">
+        <v>210</v>
+      </c>
+      <c r="J48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -2503,8 +2950,17 @@
       <c r="F49" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49" t="s">
+        <v>210</v>
+      </c>
+      <c r="I49" t="s">
+        <v>210</v>
+      </c>
+      <c r="J49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>136</v>
       </c>
@@ -2523,8 +2979,17 @@
       <c r="F50" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="H50" t="s">
+        <v>210</v>
+      </c>
+      <c r="I50" t="s">
+        <v>210</v>
+      </c>
+      <c r="J50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -2540,8 +3005,17 @@
       <c r="F51" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="H51" t="s">
+        <v>210</v>
+      </c>
+      <c r="I51" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>136</v>
       </c>
@@ -2560,8 +3034,17 @@
       <c r="F52" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="21">
+      <c r="H52" t="s">
+        <v>210</v>
+      </c>
+      <c r="I52" t="s">
+        <v>210</v>
+      </c>
+      <c r="J52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="21">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -2577,8 +3060,17 @@
       <c r="F53" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="21">
+      <c r="H53" t="s">
+        <v>210</v>
+      </c>
+      <c r="I53" t="s">
+        <v>210</v>
+      </c>
+      <c r="J53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="21">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -2594,8 +3086,17 @@
       <c r="F54" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="H54" t="s">
+        <v>210</v>
+      </c>
+      <c r="I54" t="s">
+        <v>210</v>
+      </c>
+      <c r="J54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -2611,8 +3112,17 @@
       <c r="F55" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" t="s">
+        <v>210</v>
+      </c>
+      <c r="J55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -2628,8 +3138,17 @@
       <c r="F56" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56" t="s">
+        <v>210</v>
+      </c>
+      <c r="I56" t="s">
+        <v>210</v>
+      </c>
+      <c r="J56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -2645,8 +3164,17 @@
       <c r="F57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57" t="s">
+        <v>210</v>
+      </c>
+      <c r="I57" t="s">
+        <v>210</v>
+      </c>
+      <c r="J57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>158</v>
       </c>
@@ -2665,8 +3193,17 @@
       <c r="F58" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58" t="s">
+        <v>210</v>
+      </c>
+      <c r="I58" t="s">
+        <v>210</v>
+      </c>
+      <c r="J58" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>158</v>
       </c>
@@ -2685,8 +3222,17 @@
       <c r="F59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="21">
+      <c r="H59" t="s">
+        <v>210</v>
+      </c>
+      <c r="I59" t="s">
+        <v>210</v>
+      </c>
+      <c r="J59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="21">
       <c r="A60" t="s">
         <v>158</v>
       </c>
@@ -2702,8 +3248,17 @@
       <c r="F60" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="H60" t="s">
+        <v>210</v>
+      </c>
+      <c r="I60" t="s">
+        <v>210</v>
+      </c>
+      <c r="J60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -2722,8 +3277,17 @@
       <c r="F61" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="H61" t="s">
+        <v>210</v>
+      </c>
+      <c r="I61" t="s">
+        <v>210</v>
+      </c>
+      <c r="J61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -2742,8 +3306,17 @@
       <c r="F62" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="H62" t="s">
+        <v>210</v>
+      </c>
+      <c r="I62" t="s">
+        <v>210</v>
+      </c>
+      <c r="J62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>158</v>
       </c>
@@ -2759,8 +3332,17 @@
       <c r="F63" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="21">
+      <c r="H63" t="s">
+        <v>210</v>
+      </c>
+      <c r="I63" t="s">
+        <v>210</v>
+      </c>
+      <c r="J63" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="21">
       <c r="A64" t="s">
         <v>158</v>
       </c>
@@ -2779,8 +3361,17 @@
       <c r="F64" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64" t="s">
+        <v>210</v>
+      </c>
+      <c r="I64" t="s">
+        <v>210</v>
+      </c>
+      <c r="J64" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>158</v>
       </c>
@@ -2796,8 +3387,17 @@
       <c r="F65" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65" t="s">
+        <v>210</v>
+      </c>
+      <c r="I65" t="s">
+        <v>210</v>
+      </c>
+      <c r="J65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>158</v>
       </c>
@@ -2813,8 +3413,17 @@
       <c r="F66" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66" t="s">
+        <v>210</v>
+      </c>
+      <c r="I66" t="s">
+        <v>210</v>
+      </c>
+      <c r="J66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -2833,8 +3442,17 @@
       <c r="F67" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67" t="s">
+        <v>210</v>
+      </c>
+      <c r="I67" t="s">
+        <v>210</v>
+      </c>
+      <c r="J67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -2850,8 +3468,17 @@
       <c r="F68" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68" t="s">
+        <v>210</v>
+      </c>
+      <c r="I68" t="s">
+        <v>210</v>
+      </c>
+      <c r="J68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>188</v>
       </c>
@@ -2870,8 +3497,17 @@
       <c r="F69" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="H69" t="s">
+        <v>210</v>
+      </c>
+      <c r="I69" t="s">
+        <v>210</v>
+      </c>
+      <c r="J69" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>188</v>
       </c>
@@ -2887,8 +3523,17 @@
       <c r="F70" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="H70" t="s">
+        <v>210</v>
+      </c>
+      <c r="I70" t="s">
+        <v>210</v>
+      </c>
+      <c r="J70" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -2907,8 +3552,17 @@
       <c r="F71" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71" t="s">
+        <v>210</v>
+      </c>
+      <c r="I71" t="s">
+        <v>210</v>
+      </c>
+      <c r="J71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>188</v>
       </c>
@@ -2926,6 +3580,15 @@
       </c>
       <c r="F72" t="s">
         <v>203</v>
+      </c>
+      <c r="H72" t="s">
+        <v>210</v>
+      </c>
+      <c r="I72" t="s">
+        <v>210</v>
+      </c>
+      <c r="J72" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/resource/kobe_books/shop_list.xlsx
+++ b/resource/kobe_books/shop_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/kobe_books/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1C43DA-4BED-A449-B159-DAA8AE1A0A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6E7CA-B1CE-ED4A-973E-A5A0108B2E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="2620" windowWidth="37460" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="800" windowWidth="36120" windowHeight="21280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="221">
   <si>
     <t>ページ</t>
   </si>
@@ -318,10 +318,6 @@
     <t>神戸市中央区加納町4-7-3ゴールドプラザ1F</t>
   </si>
   <si>
-    <t>11:30～14:30、_x000D_
-17:00～22:30</t>
-  </si>
-  <si>
     <t>二丁目</t>
   </si>
   <si>
@@ -344,10 +340,6 @@
     <t>神戸市中央区中山手通1-3-10ローズプラザ1F</t>
   </si>
   <si>
-    <t>16:00～20:00、_x000D_
-23:00～翌2:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">ぽちゃ </t>
   </si>
   <si>
@@ -677,6 +669,58 @@
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>利用期間は終了しました。</t>
+  </si>
+  <si>
+    <t>【内容変更】
+選べるメインセットは「生ハム or ネギトロばくだん or 日替わりメイン」から選択可能となります。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>【内容変更】
+掲載メニューから一部変更の可能性がございます。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>【利用可能時間変更】
+平日18時～22時利用可能　※土・日曜、祝日は利用不可</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>移転しました。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>【内容変更】メニューが一部変わる可能性がございます。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>【内容変更】
+「ラム肉の串焼き」→「日替わりの串焼き」に変更し提供しております。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>【内容変更】
+付きだし・日替わりおつまみ盛り合わせ・海鮮サラダに変更いたします。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>閉店しました。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>利用期間は終了しました。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11:30～14:30、17:00～22:30</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>16:00～20:00、23:00～翌2:00</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1270,12 +1314,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1635,7 +1682,7 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1661,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1670,13 +1717,13 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" t="s">
         <v>207</v>
-      </c>
-      <c r="I1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1695,14 +1742,14 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>210</v>
+      <c r="H2" s="2">
+        <v>44672</v>
       </c>
       <c r="I2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1722,13 +1769,13 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1745,19 +1792,19 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1776,14 +1823,14 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>210</v>
+      <c r="H5" s="2">
+        <v>44672</v>
       </c>
       <c r="I5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1802,17 +1849,17 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
-        <v>210</v>
+      <c r="H6" s="2">
+        <v>44672</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="63">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1828,13 +1875,13 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s">
-        <v>210</v>
+      <c r="H7" s="2">
+        <v>44672</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1852,19 +1899,19 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" t="s">
-        <v>210</v>
+      <c r="H8" s="2">
+        <v>44672</v>
       </c>
       <c r="I8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1883,14 +1930,14 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
-        <v>210</v>
+      <c r="H9" s="2">
+        <v>44672</v>
       </c>
       <c r="I9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1909,14 +1956,14 @@
       <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
-        <v>210</v>
+      <c r="H10" s="2">
+        <v>44672</v>
       </c>
       <c r="I10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1935,14 +1982,14 @@
       <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" t="s">
-        <v>210</v>
+      <c r="H11" s="2">
+        <v>44672</v>
       </c>
       <c r="I11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1961,17 +2008,17 @@
       <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="H12" t="s">
-        <v>210</v>
+      <c r="H12" s="2">
+        <v>44672</v>
       </c>
       <c r="I12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="63">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1987,14 +2034,14 @@
       <c r="F13" t="s">
         <v>42</v>
       </c>
-      <c r="H13" t="s">
-        <v>210</v>
+      <c r="H13" s="2">
+        <v>44672</v>
       </c>
       <c r="I13" t="s">
-        <v>210</v>
-      </c>
-      <c r="J13" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2013,14 +2060,14 @@
       <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="H14" t="s">
-        <v>210</v>
+      <c r="H14" s="2">
+        <v>44672</v>
       </c>
       <c r="I14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2039,14 +2086,14 @@
       <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="H15" t="s">
-        <v>210</v>
+      <c r="H15" s="2">
+        <v>44672</v>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21">
@@ -2065,14 +2112,14 @@
       <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H16" t="s">
-        <v>210</v>
+      <c r="H16" s="2">
+        <v>44672</v>
       </c>
       <c r="I16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2091,14 +2138,14 @@
       <c r="F17" t="s">
         <v>54</v>
       </c>
-      <c r="H17" t="s">
-        <v>210</v>
+      <c r="H17" s="2">
+        <v>44672</v>
       </c>
       <c r="I17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2117,14 +2164,14 @@
       <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="H18" t="s">
-        <v>210</v>
+      <c r="H18" s="2">
+        <v>44672</v>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2141,19 +2188,19 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="H19" t="s">
-        <v>210</v>
+      <c r="H19" s="2">
+        <v>44672</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2172,14 +2219,14 @@
       <c r="F20" t="s">
         <v>63</v>
       </c>
-      <c r="H20" t="s">
-        <v>210</v>
+      <c r="H20" s="2">
+        <v>44672</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2198,14 +2245,14 @@
       <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="H21" t="s">
-        <v>210</v>
+      <c r="H21" s="2">
+        <v>44672</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2224,14 +2271,14 @@
       <c r="F22" t="s">
         <v>68</v>
       </c>
-      <c r="H22" t="s">
-        <v>210</v>
+      <c r="H22" s="2">
+        <v>44672</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2250,17 +2297,17 @@
       <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="H23" t="s">
-        <v>210</v>
+      <c r="H23" s="2">
+        <v>44672</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="63">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2274,19 +2321,19 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
       </c>
-      <c r="H24" t="s">
-        <v>210</v>
+      <c r="H24" s="2">
+        <v>44672</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
-      </c>
-      <c r="J24" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2303,19 +2350,19 @@
         <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
       </c>
-      <c r="H25" t="s">
-        <v>210</v>
+      <c r="H25" s="2">
+        <v>44672</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2334,14 +2381,14 @@
       <c r="F26" t="s">
         <v>78</v>
       </c>
-      <c r="H26" t="s">
-        <v>210</v>
+      <c r="H26" s="2">
+        <v>44672</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21">
@@ -2360,14 +2407,14 @@
       <c r="F27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H27" t="s">
-        <v>210</v>
+      <c r="H27" s="2">
+        <v>44672</v>
       </c>
       <c r="I27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2386,14 +2433,14 @@
       <c r="F28" t="s">
         <v>84</v>
       </c>
-      <c r="H28" t="s">
-        <v>210</v>
+      <c r="H28" s="2">
+        <v>44672</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21">
@@ -2412,14 +2459,14 @@
       <c r="F29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H29" t="s">
-        <v>210</v>
+      <c r="H29" s="2">
+        <v>44672</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2439,13 +2486,13 @@
         <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21">
@@ -2464,17 +2511,17 @@
       <c r="F31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H31" t="s">
-        <v>210</v>
+      <c r="H31" s="2">
+        <v>44672</v>
       </c>
       <c r="I31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="42">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2488,16 +2535,16 @@
         <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" t="s">
-        <v>210</v>
+        <v>219</v>
+      </c>
+      <c r="H32" s="2">
+        <v>44672</v>
       </c>
       <c r="I32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2508,22 +2555,22 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
         <v>96</v>
-      </c>
-      <c r="D33" t="s">
-        <v>97</v>
       </c>
       <c r="F33" t="s">
         <v>84</v>
       </c>
-      <c r="H33" t="s">
-        <v>210</v>
+      <c r="H33" s="2">
+        <v>44672</v>
       </c>
       <c r="I33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2534,25 +2581,25 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
         <v>98</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>99</v>
       </c>
-      <c r="F34" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" t="s">
-        <v>210</v>
+      <c r="H34" s="2">
+        <v>44672</v>
       </c>
       <c r="I34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="42">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="21">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2560,25 +2607,25 @@
         <v>52</v>
       </c>
       <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
         <v>101</v>
       </c>
-      <c r="D35" t="s">
-        <v>102</v>
-      </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" t="s">
-        <v>210</v>
+        <v>220</v>
+      </c>
+      <c r="H35" s="2">
+        <v>44672</v>
       </c>
       <c r="I35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2589,25 +2636,25 @@
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
-      <c r="H36" t="s">
-        <v>210</v>
+      <c r="H36" s="2">
+        <v>44672</v>
       </c>
       <c r="I36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2618,22 +2665,22 @@
         <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
         <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2644,25 +2691,25 @@
         <v>55</v>
       </c>
       <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" t="s">
         <v>108</v>
       </c>
-      <c r="D38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" t="s">
-        <v>206</v>
-      </c>
-      <c r="F38" t="s">
-        <v>110</v>
-      </c>
       <c r="H38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2673,22 +2720,22 @@
         <v>56</v>
       </c>
       <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" t="s">
         <v>111</v>
       </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" t="s">
-        <v>113</v>
-      </c>
       <c r="H39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2699,22 +2746,22 @@
         <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" t="s">
-        <v>210</v>
+        <v>111</v>
+      </c>
+      <c r="H40" s="2">
+        <v>44672</v>
       </c>
       <c r="I40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="42">
@@ -2725,22 +2772,22 @@
         <v>58</v>
       </c>
       <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D41" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H41" t="s">
-        <v>210</v>
+      <c r="H41" s="2">
+        <v>44672</v>
       </c>
       <c r="I41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2751,22 +2798,22 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
         <v>119</v>
       </c>
-      <c r="D42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" t="s">
-        <v>121</v>
-      </c>
-      <c r="H42" t="s">
-        <v>210</v>
+      <c r="H42" s="2">
+        <v>44672</v>
       </c>
       <c r="I42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2777,22 +2824,22 @@
         <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
         <v>84</v>
       </c>
-      <c r="H43" t="s">
-        <v>210</v>
+      <c r="H43" s="2">
+        <v>44672</v>
       </c>
       <c r="I43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2803,22 +2850,22 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" t="s">
         <v>124</v>
       </c>
-      <c r="D44" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" t="s">
-        <v>126</v>
-      </c>
-      <c r="H44" t="s">
-        <v>210</v>
+      <c r="H44" s="2">
+        <v>44672</v>
       </c>
       <c r="I44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2829,25 +2876,25 @@
         <v>62</v>
       </c>
       <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" t="s">
         <v>127</v>
       </c>
-      <c r="D45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" t="s">
-        <v>205</v>
-      </c>
-      <c r="F45" t="s">
-        <v>129</v>
-      </c>
       <c r="H45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2858,22 +2905,22 @@
         <v>63</v>
       </c>
       <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" t="s">
         <v>130</v>
       </c>
-      <c r="D46" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" t="s">
-        <v>132</v>
-      </c>
       <c r="H46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I46" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J46" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2884,195 +2931,195 @@
         <v>64</v>
       </c>
       <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" t="s">
         <v>133</v>
       </c>
-      <c r="D47" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" t="s">
-        <v>210</v>
+      <c r="H47" s="2">
+        <v>44672</v>
       </c>
       <c r="I47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B48">
         <v>66</v>
       </c>
       <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" t="s">
         <v>137</v>
       </c>
-      <c r="D48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E48" t="s">
-        <v>206</v>
-      </c>
-      <c r="F48" t="s">
-        <v>139</v>
-      </c>
-      <c r="H48" t="s">
-        <v>210</v>
+      <c r="H48" s="2">
+        <v>44672</v>
       </c>
       <c r="I48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B49">
         <v>67</v>
       </c>
       <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" t="s">
         <v>140</v>
       </c>
-      <c r="D49" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" t="s">
-        <v>142</v>
-      </c>
-      <c r="H49" t="s">
-        <v>210</v>
+      <c r="H49" s="2">
+        <v>44672</v>
       </c>
       <c r="I49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J49" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B50">
         <v>68</v>
       </c>
       <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" t="s">
         <v>143</v>
       </c>
-      <c r="D50" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" t="s">
-        <v>206</v>
-      </c>
-      <c r="F50" t="s">
-        <v>145</v>
-      </c>
-      <c r="H50" t="s">
-        <v>210</v>
+      <c r="H50" s="2">
+        <v>44672</v>
       </c>
       <c r="I50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B51">
         <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F51" t="s">
         <v>78</v>
       </c>
-      <c r="H51" t="s">
-        <v>210</v>
+      <c r="H51" s="2">
+        <v>44672</v>
       </c>
       <c r="I51" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J51" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="63">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B52">
         <v>70</v>
       </c>
       <c r="C52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" t="s">
         <v>148</v>
       </c>
-      <c r="D52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" t="s">
-        <v>206</v>
-      </c>
-      <c r="F52" t="s">
-        <v>150</v>
-      </c>
-      <c r="H52" t="s">
-        <v>210</v>
+      <c r="H52" s="2">
+        <v>44672</v>
       </c>
       <c r="I52" t="s">
-        <v>210</v>
-      </c>
-      <c r="J52" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="21">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53">
         <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H53" t="s">
-        <v>210</v>
+      <c r="H53" s="2">
+        <v>44672</v>
       </c>
       <c r="I53" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J53" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="21">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B54">
         <v>72</v>
@@ -3081,514 +3128,514 @@
         <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H54" t="s">
-        <v>210</v>
+        <v>152</v>
+      </c>
+      <c r="H54" s="2">
+        <v>44672</v>
       </c>
       <c r="I54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B55">
         <v>73</v>
       </c>
       <c r="C55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" t="s">
         <v>155</v>
       </c>
-      <c r="D55" t="s">
+      <c r="H55" s="2">
+        <v>44672</v>
+      </c>
+      <c r="I55" t="s">
+        <v>208</v>
+      </c>
+      <c r="J55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="63">
+      <c r="A56" t="s">
         <v>156</v>
-      </c>
-      <c r="F55" t="s">
-        <v>157</v>
-      </c>
-      <c r="H55" t="s">
-        <v>210</v>
-      </c>
-      <c r="I55" t="s">
-        <v>210</v>
-      </c>
-      <c r="J55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>158</v>
       </c>
       <c r="B56">
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F56" t="s">
         <v>28</v>
       </c>
-      <c r="H56" t="s">
-        <v>210</v>
+      <c r="H56" s="2">
+        <v>44672</v>
       </c>
       <c r="I56" t="s">
-        <v>210</v>
-      </c>
-      <c r="J56" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B57">
         <v>76</v>
       </c>
       <c r="C57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" t="s">
         <v>161</v>
       </c>
-      <c r="D57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F57" t="s">
-        <v>163</v>
-      </c>
-      <c r="H57" t="s">
-        <v>210</v>
+      <c r="H57" s="2">
+        <v>44672</v>
       </c>
       <c r="I57" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J57" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B58">
         <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
-      </c>
-      <c r="H58" t="s">
-        <v>210</v>
+        <v>119</v>
+      </c>
+      <c r="H58" s="2">
+        <v>44672</v>
       </c>
       <c r="I58" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J58" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B59">
         <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I59" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="21">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B60">
         <v>79</v>
       </c>
       <c r="C60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D60" t="s">
-        <v>169</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H60" t="s">
-        <v>210</v>
+      <c r="H60" s="2">
+        <v>44672</v>
       </c>
       <c r="I60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B61">
         <v>80</v>
       </c>
       <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" t="s">
         <v>171</v>
       </c>
-      <c r="D61" t="s">
-        <v>172</v>
-      </c>
-      <c r="E61" t="s">
-        <v>206</v>
-      </c>
-      <c r="F61" t="s">
-        <v>173</v>
-      </c>
-      <c r="H61" t="s">
-        <v>210</v>
+      <c r="H61" s="2">
+        <v>44672</v>
       </c>
       <c r="I61" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J61" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B62">
         <v>81</v>
       </c>
       <c r="C62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" t="s">
         <v>174</v>
       </c>
-      <c r="D62" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" t="s">
-        <v>206</v>
-      </c>
-      <c r="F62" t="s">
-        <v>176</v>
-      </c>
-      <c r="H62" t="s">
-        <v>210</v>
+      <c r="H62" s="2">
+        <v>44672</v>
       </c>
       <c r="I62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B63">
         <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F63" t="s">
         <v>78</v>
       </c>
-      <c r="H63" t="s">
-        <v>210</v>
+      <c r="H63" s="2">
+        <v>44672</v>
       </c>
       <c r="I63" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J63" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="21">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B64">
         <v>83</v>
       </c>
       <c r="C64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D64" t="s">
-        <v>180</v>
-      </c>
-      <c r="E64" t="s">
-        <v>206</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="H64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B65">
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F65" t="s">
         <v>60</v>
       </c>
       <c r="H65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B66">
         <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
+        <v>181</v>
+      </c>
+      <c r="F66" t="s">
         <v>183</v>
       </c>
-      <c r="F66" t="s">
-        <v>185</v>
-      </c>
       <c r="H66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B67">
         <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E67" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F67" t="s">
         <v>57</v>
       </c>
-      <c r="H67" t="s">
-        <v>210</v>
+      <c r="H67" s="2">
+        <v>44672</v>
       </c>
       <c r="I67" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J67" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B68">
         <v>88</v>
       </c>
       <c r="C68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" t="s">
+        <v>188</v>
+      </c>
+      <c r="F68" t="s">
         <v>189</v>
       </c>
-      <c r="D68" t="s">
-        <v>190</v>
-      </c>
-      <c r="F68" t="s">
-        <v>191</v>
-      </c>
-      <c r="H68" t="s">
-        <v>210</v>
+      <c r="H68" s="2">
+        <v>44672</v>
       </c>
       <c r="I68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B69">
         <v>89</v>
       </c>
       <c r="C69" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" t="s">
         <v>192</v>
       </c>
-      <c r="D69" t="s">
-        <v>193</v>
-      </c>
-      <c r="E69" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" t="s">
-        <v>194</v>
-      </c>
-      <c r="H69" t="s">
-        <v>210</v>
+      <c r="H69" s="2">
+        <v>44672</v>
       </c>
       <c r="I69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B70">
         <v>90</v>
       </c>
       <c r="C70" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" t="s">
+        <v>194</v>
+      </c>
+      <c r="F70" t="s">
         <v>195</v>
       </c>
-      <c r="D70" t="s">
-        <v>196</v>
-      </c>
-      <c r="F70" t="s">
-        <v>197</v>
-      </c>
-      <c r="H70" t="s">
-        <v>210</v>
+      <c r="H70" s="2">
+        <v>44672</v>
       </c>
       <c r="I70" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J70" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B71">
         <v>91</v>
       </c>
       <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" t="s">
         <v>198</v>
       </c>
-      <c r="D71" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" t="s">
-        <v>205</v>
-      </c>
-      <c r="F71" t="s">
-        <v>200</v>
-      </c>
-      <c r="H71" t="s">
-        <v>210</v>
+      <c r="H71" s="2">
+        <v>44672</v>
       </c>
       <c r="I71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B72">
         <v>92</v>
       </c>
       <c r="C72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" t="s">
         <v>201</v>
       </c>
-      <c r="D72" t="s">
-        <v>202</v>
-      </c>
-      <c r="E72" t="s">
-        <v>205</v>
-      </c>
-      <c r="F72" t="s">
-        <v>203</v>
-      </c>
-      <c r="H72" t="s">
-        <v>210</v>
+      <c r="H72" s="2">
+        <v>44672</v>
       </c>
       <c r="I72" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J72" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/resource/kobe_books/shop_list.xlsx
+++ b/resource/kobe_books/shop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6E7CA-B1CE-ED4A-973E-A5A0108B2E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E11FFD5-1621-9F4A-B757-531F2D00B5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="800" windowWidth="36120" windowHeight="21280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5560" yWindow="4000" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="215">
   <si>
     <t>ページ</t>
   </si>
@@ -34,693 +34,654 @@
     <t>住所</t>
   </si>
   <si>
+    <t>NEW/復活</t>
+  </si>
+  <si>
     <t>利用可能時間</t>
   </si>
   <si>
     <t>定休日</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">テイキュウビ </t>
-    </rPh>
+  </si>
+  <si>
+    <t>期間延長日</t>
+  </si>
+  <si>
+    <t>閉店フラグ</t>
+  </si>
+  <si>
+    <t>お知らせ</t>
+  </si>
+  <si>
+    <t>三宮エリア</t>
+  </si>
+  <si>
+    <t>ちろり</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-4-11ニューゲートビル2F</t>
+  </si>
+  <si>
+    <t>17:30～22:30</t>
+  </si>
+  <si>
+    <t>日・月曜 （予約のみ）、祝日不定</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>まり屋</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-5-7丸岩ビル4F</t>
+  </si>
+  <si>
+    <t>17:30～21:00</t>
+  </si>
+  <si>
+    <t>日曜、祝日、第1・3水曜</t>
+  </si>
+  <si>
+    <t>Kitchen Witch</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-8-1明関ビル4F</t>
+  </si>
+  <si>
+    <t>復活</t>
+  </si>
+  <si>
+    <t>17:00～21:00</t>
+  </si>
+  <si>
+    <t>土・日曜 （予約のみ）、祝日</t>
+  </si>
+  <si>
+    <t>ボウルズキッチン</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通1-31-14</t>
+  </si>
+  <si>
+    <t>18:00～22:00</t>
+  </si>
+  <si>
+    <t>不定</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-14-12ゴールドウッズ85番地ビル2F</t>
+  </si>
+  <si>
+    <t>17:30～20:30</t>
+  </si>
+  <si>
+    <t>meel</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通1-3-10燕京ビル4F</t>
+  </si>
+  <si>
+    <t>18:00～24:00</t>
+  </si>
+  <si>
+    <t>木曜</t>
+  </si>
+  <si>
+    <t>季楽</t>
+  </si>
+  <si>
+    <t>神戸市中央区下山手通2-1-13第13シャルマンビル2F</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>17:00～23:00</t>
+  </si>
+  <si>
+    <t>ええねん</t>
+  </si>
+  <si>
+    <t>17:30～22:00</t>
+  </si>
+  <si>
+    <t>あんぴもん</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-5-6NAKAJIMAビル5F</t>
+  </si>
+  <si>
+    <t>18:00～23:30</t>
+  </si>
+  <si>
+    <t>日曜、祝日</t>
+  </si>
+  <si>
+    <t>WANTOK＋</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-7-8格子屋ビルB1F</t>
+  </si>
+  <si>
+    <t>19:30～23:00</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>わしゅまる</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通2-10-22伸野ビル102</t>
+  </si>
+  <si>
+    <t>18:00～翌1:30</t>
+  </si>
+  <si>
+    <t>トレトゥール・レ・ヴィーニュ</t>
+  </si>
+  <si>
+    <t>神戸市中央区山本通1-7-5北野メゾンブランシュ1F</t>
+  </si>
+  <si>
+    <t>12:00～21:00</t>
+  </si>
+  <si>
+    <t>月曜、第3火曜（祝日の場合は翌日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神戸市中央区北長狭通1-2-2キャラバンビル1・2F </t>
+  </si>
+  <si>
+    <t>11:00～24:00</t>
+  </si>
+  <si>
+    <t>農家</t>
+  </si>
+  <si>
+    <t>神戸市中央区三宮町1-10-1さんちか8番街</t>
+  </si>
+  <si>
+    <t>11:00～20:30</t>
+  </si>
+  <si>
+    <t>第3水曜（さんちかに準じる）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おむすび </t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-8-1明関ビル3F</t>
+  </si>
+  <si>
+    <t>18:00～翌1:00</t>
+  </si>
+  <si>
+    <t>日曜（祝日の場合は翌日）</t>
+  </si>
+  <si>
+    <t>エルリゾート</t>
+  </si>
+  <si>
+    <t>18:30～21:30</t>
+  </si>
+  <si>
+    <t>日曜、祝日、不定</t>
+  </si>
+  <si>
+    <t>神戸パリ食堂</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-8-1明関ビル5F</t>
+  </si>
+  <si>
+    <t>路食堂</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通2-3-14</t>
+  </si>
+  <si>
+    <t>17:00～21:30</t>
+  </si>
+  <si>
+    <t>月・火曜</t>
+  </si>
+  <si>
+    <t>さけやしろ</t>
+  </si>
+  <si>
+    <t>神戸市中央区下山手通1-1-5フジヤビルディング1F</t>
+  </si>
+  <si>
+    <t>16:00～21:00</t>
+  </si>
+  <si>
+    <t>日・月曜</t>
+  </si>
+  <si>
+    <t>cucina otto</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-6-22宮ビル1F</t>
+  </si>
+  <si>
+    <t>二丁目</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通2-11-5グランドコーストビル1F</t>
+  </si>
+  <si>
+    <t>17:00～22:00</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-8-15アサキビル2F</t>
+  </si>
+  <si>
+    <t>CUReHA</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通2-11-5グランドコーストビルB1F</t>
+  </si>
+  <si>
+    <t>12:00～22:30</t>
+  </si>
+  <si>
+    <t>ハッチ</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通1-20-2高井ビル3F</t>
+  </si>
+  <si>
+    <t>19:00～23:00</t>
+  </si>
+  <si>
+    <t>ななころびやおき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神戸市中央区中山手通1-5-9港都会館4A </t>
+  </si>
+  <si>
+    <t>17:00～23:30</t>
+  </si>
+  <si>
+    <t>日曜</t>
+  </si>
+  <si>
+    <t>たこ焼きバーREED</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-16-12 東門ヴィレッジ2F</t>
+  </si>
+  <si>
+    <t>17:00～翌5:00</t>
+  </si>
+  <si>
+    <t>月曜</t>
+  </si>
+  <si>
+    <t>地酒バル 飲山</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通2-3-11新安第3ビル1F</t>
+  </si>
+  <si>
+    <t>19:00～22:30</t>
+  </si>
+  <si>
+    <t>ダイスキッチン</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通2-2-2ステラ北長狭1F</t>
+  </si>
+  <si>
+    <t>神戸市中央区三宮町1-10-1神戸交通センタービル9F</t>
+  </si>
+  <si>
+    <t>神戸市中央区三宮町1-10-1さんちかB1F味ののれん街</t>
+  </si>
+  <si>
+    <t>11:00～21:00</t>
+  </si>
+  <si>
+    <t>喫茶去</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-4-23レインボービル303</t>
+  </si>
+  <si>
+    <t>17:30～24:00</t>
+  </si>
+  <si>
+    <t>ロイエット</t>
+  </si>
+  <si>
+    <t>神戸市中央区加納町4-7-3ゴールドプラザ1F</t>
+  </si>
+  <si>
+    <t>火曜</t>
+  </si>
+  <si>
+    <t>大衆酒場 一 はじめ</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通1-8-7</t>
+  </si>
+  <si>
+    <t>15:00～22:30</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-3-10ローズプラザ1F</t>
+  </si>
+  <si>
+    <t>17:00～翌2:00</t>
+  </si>
+  <si>
+    <t>鴻錦楼</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通1-4-6</t>
+  </si>
+  <si>
+    <t>24時間</t>
+  </si>
+  <si>
+    <t>三宮麦酒</t>
+  </si>
+  <si>
+    <t>神戸市中央区加納町4-3-5シャトー北野坂ビルB1F</t>
+  </si>
+  <si>
+    <t>15:00～22:00</t>
+  </si>
+  <si>
+    <t>神戸市中央区琴ノ緒町5-6-3三共ビルB1F</t>
+  </si>
+  <si>
+    <t>15:00～20:00</t>
+  </si>
+  <si>
+    <t>水曜</t>
+  </si>
+  <si>
+    <t>麺や きしもと</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-10-5中一東ビル1F</t>
+  </si>
+  <si>
+    <t>17:30～24:30</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-4-2Uライン三宮ビル1F</t>
+  </si>
+  <si>
+    <t>安い</t>
+  </si>
+  <si>
+    <t>神戸市中央区下山手通2-12-7ダイキホームビル1F奥</t>
+  </si>
+  <si>
+    <t>日曜、第2月曜</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>神戸市中央区下山手通2-13-7東昌ビル1F</t>
+  </si>
+  <si>
+    <t>不定、4/28～5/9</t>
+  </si>
+  <si>
+    <t>酔坊3号店</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通1-4-6安達ビル4F</t>
+  </si>
+  <si>
+    <t>17:00～翌1:00</t>
+  </si>
+  <si>
+    <t>大豆屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神戸市中央区加納町4-7-20イーグルビルB1F </t>
+  </si>
+  <si>
+    <t>悠</t>
+  </si>
+  <si>
+    <t>神戸市中央区加納町4-8-19北上ホテルB1F</t>
+  </si>
+  <si>
+    <t>18:00～21:00</t>
+  </si>
+  <si>
+    <t>好再来</t>
+  </si>
+  <si>
+    <t>神戸市中央区三宮町1‐8‐1さんプラザB1F</t>
+  </si>
+  <si>
+    <t>13:00～20:00</t>
+  </si>
+  <si>
+    <t>半立ち</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-1-9ゴ-ルドウッズ三宮ビル壱番館1-2</t>
+  </si>
+  <si>
+    <t>元町エリア</t>
+  </si>
+  <si>
+    <t>ぜ</t>
+  </si>
+  <si>
+    <t>神戸市中央区栄町通2-10-5林ビル2F</t>
+  </si>
+  <si>
+    <t>13:00～21:00</t>
+  </si>
+  <si>
+    <t>AQUAN</t>
+  </si>
+  <si>
+    <t>神戸市中央区元町通5-7-9KOBE Joan bldg 1F</t>
+  </si>
+  <si>
+    <t>11:00～22:00</t>
+  </si>
+  <si>
+    <t>英国館</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通3-2-1トア山手ザ神戸タワー103</t>
+  </si>
+  <si>
+    <t>14:00～24:00</t>
+  </si>
+  <si>
+    <t>火土木</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通3-3-5泰隆ビルB1F</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>神戸市中央区三宮町3-5-2河原街ビル1F</t>
+  </si>
+  <si>
+    <t>一合一笑</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通5-7-20</t>
+  </si>
+  <si>
+    <t>16:30～20:30</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通4-2-17</t>
+  </si>
+  <si>
+    <t>カサ・ペケーニョ</t>
+  </si>
+  <si>
+    <t>神戸市中央区北長狭通3-1-4 ツタニビル1F</t>
+  </si>
+  <si>
+    <t>神戸エリア</t>
+  </si>
+  <si>
+    <t>神戸市中央区多聞通2-6-6</t>
+  </si>
+  <si>
+    <t>神戸市中央区相生町4-3-13</t>
+  </si>
+  <si>
+    <t>16:00～22:30</t>
+  </si>
+  <si>
+    <t>日曜、祝日不定</t>
+  </si>
+  <si>
+    <t>なぁむ</t>
+  </si>
+  <si>
+    <t>神戸市兵庫区湊町1-1-26</t>
+  </si>
+  <si>
+    <t>きんちゃんち</t>
+  </si>
+  <si>
+    <t>神戸市兵庫区東出町2-11-5</t>
+  </si>
+  <si>
+    <t>すずしろ ゆるりな</t>
+  </si>
+  <si>
+    <t>神戸市中央区多聞通1-1-7 笹倉ビル1F</t>
+  </si>
+  <si>
+    <t>神戸市兵庫区新開地6-1-5</t>
+  </si>
+  <si>
+    <t>14:00～21:00</t>
+  </si>
+  <si>
+    <t>水曜（祝日の場合営業、翌日定休）</t>
+  </si>
+  <si>
+    <t>一味同心</t>
+  </si>
+  <si>
+    <t>神戸市兵庫区新開地1-2-9-2</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>BAR A-SOLUTIONS</t>
+  </si>
+  <si>
+    <t>神戸市中央区下山手通2-17-10ライオンビル三宮館3F</t>
+  </si>
+  <si>
+    <t>18:00～23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日曜 </t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>神戸市中央区加納町4-9-29神戸真亜ビル302</t>
+  </si>
+  <si>
+    <t>20:00～翌1:00</t>
+  </si>
+  <si>
+    <t>IT’s 北野坂</t>
+  </si>
+  <si>
+    <t>神戸市中央区中山手通1-9-21日源ビルB1F</t>
+  </si>
+  <si>
+    <t>19:00～24:00</t>
+  </si>
+  <si>
+    <t>鳥夢 三宮店</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>サシ飲み特集</t>
+    <t>魚 駅前 サンキタ総本店</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>ふぐ三味 北野坂店</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>神戸市中央区中山手通1-8-15アサキビル2F</t>
-  </si>
-  <si>
-    <t>17:00～23:00</t>
-  </si>
-  <si>
-    <t>ROBATA YAKIMEN</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-2-1Nコーストビル1F</t>
-  </si>
-  <si>
-    <t>17:00～24:00</t>
-  </si>
-  <si>
-    <t>鳥夢 三宮店</t>
+    <t>農家うたげ。 三宮店</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>神戸市中央区中山手通1-14-12ゴールドウッズ85番地ビル2F</t>
-  </si>
-  <si>
-    <t>17:30～20:30</t>
-  </si>
-  <si>
-    <t>キルシュ エ セロリ</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通2-1-11第2玉広ビル8F</t>
-  </si>
-  <si>
-    <t>16:00～21:00</t>
-  </si>
-  <si>
-    <t>CUReHA</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通2-11-5グランドコーストビルB1F</t>
-  </si>
-  <si>
-    <t>12:00～22:30</t>
-  </si>
-  <si>
-    <t>三宮エリア</t>
-  </si>
-  <si>
-    <t>ちろり</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-4-11ニューゲートビル2F</t>
-  </si>
-  <si>
-    <t>17:30～22:00</t>
-  </si>
-  <si>
-    <t>まり屋</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-5-7丸岩ビル4F</t>
-  </si>
-  <si>
-    <t>17:30～21:00</t>
-  </si>
-  <si>
-    <t>ボウルズキッチン</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通1-31-14</t>
-  </si>
-  <si>
-    <t>18:00～22:00</t>
-  </si>
-  <si>
-    <t>meel</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通1-3-10燕京ビル4F</t>
-  </si>
-  <si>
-    <t>18:00～24:00</t>
-  </si>
-  <si>
-    <t>WANTOK＋</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-7-8格子屋ビルB1F</t>
-  </si>
-  <si>
-    <t>19:30～23:00</t>
-  </si>
-  <si>
-    <t>ええねん</t>
-  </si>
-  <si>
-    <t>神戸市中央区下山手通2-1-13第13シャルマンビル2F</t>
-  </si>
-  <si>
-    <t>路食堂</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通2-3-14</t>
-  </si>
-  <si>
-    <t>17:00～21:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おむすび </t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-8-1明関ビル3F</t>
-  </si>
-  <si>
-    <t>18:00～翌1:00</t>
-  </si>
-  <si>
-    <t>ELLE RESORT</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-8-1明関ビル4F</t>
-  </si>
-  <si>
-    <t>18:30～20:30</t>
-  </si>
-  <si>
-    <t>神戸パリ食堂</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-8-1明関ビル5F</t>
+    <t>街のみなと さんちか店</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>クバーノクバーノ 三宮店</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Juicy Meat 神戸三ノ宮店</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>一 はじめ 2号店</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>海蓮丸 神戸店</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>浜焼太郎 神戸駅前店</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">八喜為 新開地 南店 </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>11:30～14:00、17:30～22:00</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>トレトゥール・レ・ヴィーニュ</t>
-  </si>
-  <si>
-    <t>神戸市中央区山本通1-7-5北野メゾンブランシュ1F</t>
-  </si>
-  <si>
-    <t>12:00～21:30</t>
-  </si>
-  <si>
-    <t>からんと</t>
-  </si>
-  <si>
-    <t>神戸市中央区小野柄通6-1-5</t>
-  </si>
-  <si>
-    <t>17:30～23:00</t>
-  </si>
-  <si>
-    <t>農家</t>
-  </si>
-  <si>
-    <t>神戸市中央区三宮町1-10-1さんちか8番街</t>
-  </si>
-  <si>
-    <t>11:00～20:30</t>
-  </si>
-  <si>
-    <t>Zorome</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-8-20三ノ宮SKビルB1F</t>
-  </si>
-  <si>
-    <t>18:00～21:00</t>
-  </si>
-  <si>
-    <t>さけやしろ</t>
-  </si>
-  <si>
-    <t>神戸市中央区下山手通1-1-5フジヤビルディング1F</t>
-  </si>
-  <si>
-    <t>ハッチ</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通1-20-2高井ビル3F</t>
-  </si>
-  <si>
-    <t>19:00～23:00</t>
-  </si>
-  <si>
-    <t>地酒バル 飲山</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通2-3-11新安第3ビル1F</t>
-  </si>
-  <si>
-    <t>18:30～22:00</t>
-  </si>
-  <si>
-    <t>ざりお</t>
-  </si>
-  <si>
-    <t>神戸市中央区下山手通2-4-13永都ビル神戸一番館4F</t>
-  </si>
-  <si>
-    <t>Vivo</t>
-  </si>
-  <si>
-    <t>神戸市中央区山本通2-2-2レジデンス明信B1F</t>
-  </si>
-  <si>
-    <t>ななころびやおき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神戸市中央区中山手通1-5-9港都会館4A </t>
-  </si>
-  <si>
-    <t>17:00～23:30</t>
-  </si>
-  <si>
-    <t>ダイスキッチン</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通2-2-2ステラ北長狭1F</t>
-  </si>
-  <si>
-    <t>12:00～15:00、18:00～24:00</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>農家うたげ。 三宮店</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神戸市中央区三宮町1-10-1神戸交通センタービル9F</t>
-  </si>
-  <si>
-    <t>17:00～22:00</t>
-  </si>
-  <si>
-    <t>cucina otto</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-6-22宮ビル1F</t>
-  </si>
-  <si>
     <t>11:30～15:00、17:00～23:30</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>友遊</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-5-18第10シャルマンビル1F</t>
-  </si>
-  <si>
-    <t>麺や きしもと</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-10-5中一東ビル1F</t>
-  </si>
-  <si>
-    <t>11:00～14:00、17:30～24:30</t>
+    <t>11:30～14:30、17:00～22:30</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ロイエット</t>
-  </si>
-  <si>
-    <t>神戸市中央区加納町4-7-3ゴールドプラザ1F</t>
-  </si>
-  <si>
-    <t>二丁目</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通2-11-5グランドコーストビル1F</t>
-  </si>
-  <si>
-    <t>大衆酒場 一 はじめ</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通1-8-7</t>
-  </si>
-  <si>
-    <t>15:00～22:30</t>
-  </si>
-  <si>
-    <t>クバーノクバーノ 三宮店</t>
+    <t>11:30～13:30、17:00～22:30</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-3-10ローズプラザ1F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぽちゃ </t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-4-13 コスモスビル21 B1F</t>
-  </si>
-  <si>
-    <t>泰</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-8-22ニュー神和ビル4F</t>
-  </si>
-  <si>
-    <t>すたんど まる喜</t>
-  </si>
-  <si>
-    <t>神戸市中央区三宮町1-6-15</t>
-  </si>
-  <si>
-    <t>15:00～20:30</t>
-  </si>
-  <si>
-    <t>Momiji</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通1-21-2TAKAI.BLD B1F</t>
-  </si>
-  <si>
-    <t>17:00～22:30</t>
-  </si>
-  <si>
-    <t>安い</t>
-  </si>
-  <si>
-    <t>神戸市中央区下山手通2-12-7ダイキホームビル1F奥</t>
-  </si>
-  <si>
-    <t>大豆屋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神戸市中央区加納町4-7-20イーグルビルB1F </t>
-  </si>
-  <si>
-    <t>11:30～13:30、_x000D_
-17:00～22:30</t>
-  </si>
-  <si>
-    <t>三宮麦酒</t>
-  </si>
-  <si>
-    <t>神戸市中央区加納町4-3-5シャトー北野坂ビルB1F</t>
-  </si>
-  <si>
-    <t>15:00～22:00</t>
-  </si>
-  <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
-    <t>神戸市中央区下山手通2-13-7東昌ビル1F</t>
-  </si>
-  <si>
-    <t>鴻錦楼</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通1-4-6</t>
-  </si>
-  <si>
-    <t>24時間</t>
-  </si>
-  <si>
-    <t>HOP STAND 三宮店</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通2-9-5</t>
-  </si>
-  <si>
-    <t>17:00～20:00</t>
-  </si>
-  <si>
-    <t>ちょっと</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-8-22ニュー神和ビル1F</t>
-  </si>
-  <si>
-    <t>16:00～20:00</t>
-  </si>
-  <si>
-    <t>街のみなと さんちか店</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神戸市中央区三宮町1-10-1さんちかB1F味ののれん街</t>
-  </si>
-  <si>
-    <t>11:00～21:00</t>
-  </si>
-  <si>
-    <t>元町エリア</t>
-  </si>
-  <si>
-    <t>ぜ</t>
-  </si>
-  <si>
-    <t>神戸市中央区栄町通2-10-5林ビル2F</t>
-  </si>
-  <si>
-    <t>11:30～22:00</t>
-  </si>
-  <si>
-    <t>AQUAN</t>
-  </si>
-  <si>
-    <t>神戸市中央区元町通5-7-9KOBE Joan bldg 1F</t>
-  </si>
-  <si>
-    <t>11:00～22:00</t>
-  </si>
-  <si>
-    <t>英国館</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通3-2-1トア山手ザ神戸タワー103</t>
-  </si>
-  <si>
-    <t>14:00～24:00</t>
-  </si>
-  <si>
-    <t>火土木</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通3-3-5泰隆ビルB1F</t>
-  </si>
-  <si>
-    <t>SILVERGOLD</t>
-  </si>
-  <si>
-    <t>神戸市中央区元町通1-3-2 奥田ビル2F</t>
-  </si>
-  <si>
-    <t>14:30～22:00</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>神戸市中央区三宮町3-5-2河原街ビル1F</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通4-2-17</t>
   </si>
   <si>
     <t>11:00～15:00、17:00～22:00</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>カサ・ペケーニョ</t>
-  </si>
-  <si>
-    <t>神戸市中央区北長狭通3-1-4 ツタニビル1F</t>
-  </si>
-  <si>
-    <t>17:00～翌2:00</t>
-  </si>
-  <si>
-    <t>神戸エリア</t>
-  </si>
-  <si>
-    <t>海蓮丸 神戸店</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神戸市中央区多聞通2-6-6</t>
-  </si>
-  <si>
-    <t>浜焼太郎 神戸駅前店</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神戸市中央区相生町4-3-13</t>
-  </si>
-  <si>
-    <t>16:00～22:30</t>
-  </si>
-  <si>
-    <t>なぁむ</t>
-  </si>
-  <si>
-    <t>神戸市兵庫区湊町1-1-26</t>
-  </si>
-  <si>
-    <t>ハ富士</t>
-  </si>
-  <si>
-    <t>神戸市兵庫区水木通1-4-5</t>
-  </si>
-  <si>
-    <t>きんちゃんち</t>
-  </si>
-  <si>
-    <t>神戸市兵庫区東出町2-11-5</t>
-  </si>
-  <si>
     <t>11:30～14:00、17:00～22:30</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ZZINO</t>
-  </si>
-  <si>
-    <t>神戸市中央区相生町2-1-339</t>
-  </si>
-  <si>
-    <t>17:00～21:00</t>
-  </si>
-  <si>
-    <t>うめ皇蘭</t>
-  </si>
-  <si>
-    <t>神戸市中央区東川崎町1-6-1神戸ハーバーランドumieモザイク2F</t>
-  </si>
-  <si>
-    <t>11:00～21:30</t>
-  </si>
-  <si>
-    <t>すずしろ ゆるりな</t>
-  </si>
-  <si>
-    <t>神戸市中央区多聞通1-1-7 笹倉ビル1F</t>
-  </si>
-  <si>
-    <t>しらす屋ジロー 神戸駅前本店</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神戸市中央区多聞通1-1-7</t>
-  </si>
-  <si>
-    <t>11:30～14:00、18:00～21:00</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>串かつ酒場 新開地</t>
-  </si>
-  <si>
-    <t>神戸市兵庫区新開地2-3メトロこうべ内B1F</t>
-  </si>
-  <si>
-    <t>餃子ノ酒場 新開地</t>
-  </si>
-  <si>
-    <t>12:00～20:00</t>
-  </si>
-  <si>
-    <t>焼きとり 辻</t>
-  </si>
-  <si>
-    <t>神戸市中央区相生町4-6-7</t>
-  </si>
-  <si>
-    <t>BAR</t>
-  </si>
-  <si>
-    <t>BAR A-SOLUTIONS</t>
-  </si>
-  <si>
-    <t>神戸市中央区下山手通2-17-10ライオンビル三宮館3F</t>
-  </si>
-  <si>
-    <t>18:00～23:00</t>
-  </si>
-  <si>
-    <t>たこ焼きバーREED</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-16-12 東門ヴィレッジ2F</t>
-  </si>
-  <si>
-    <t>17:00～翌5:00</t>
-  </si>
-  <si>
-    <t>IT’s 北野坂</t>
-  </si>
-  <si>
-    <t>神戸市中央区中山手通1-9-21日源ビルB1F</t>
-  </si>
-  <si>
-    <t>19:00～24:00</t>
-  </si>
-  <si>
-    <t>CIRCUS</t>
-  </si>
-  <si>
-    <t>神戸市中央区下山手通2-12-20セゾンコートビル3F</t>
-  </si>
-  <si>
-    <t>18:00～翌3:00</t>
-  </si>
-  <si>
-    <t>Antica 北野坂店</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神戸市中央区加納町4-7-4ゴールドプラザビル1F</t>
-  </si>
-  <si>
-    <t>14:00～翌3:00</t>
-  </si>
-  <si>
-    <t>NEW/復活</t>
-  </si>
-  <si>
-    <t>復活</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>期間延長日</t>
-  </si>
-  <si>
-    <t>閉店フラグ</t>
-  </si>
-  <si>
-    <t>お知らせ</t>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>利用期間は終了しました。</t>
-  </si>
-  <si>
-    <t>【内容変更】
-選べるメインセットは「生ハム or ネギトロばくだん or 日替わりメイン」から選択可能となります。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>【内容変更】
-掲載メニューから一部変更の可能性がございます。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>【利用可能時間変更】
-平日18時～22時利用可能　※土・日曜、祝日は利用不可</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>移転しました。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>【内容変更】メニューが一部変わる可能性がございます。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>【内容変更】
-「ラム肉の串焼き」→「日替わりの串焼き」に変更し提供しております。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>【内容変更】
-付きだし・日替わりおつまみ盛り合わせ・海鮮サラダに変更いたします。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>閉店しました。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>利用期間は終了しました。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>11:30～14:30、17:00～22:30</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>16:00～20:00、23:00～翌2:00</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1314,15 +1275,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1679,19 +1637,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
-    <col min="8" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1708,1934 +1665,1926 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2">
-        <v>44672</v>
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I4" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2">
-        <v>44672</v>
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2">
-        <v>44672</v>
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2">
-        <v>44672</v>
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>210</v>
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="2">
-        <v>44672</v>
+      <c r="H8" t="s">
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2">
-        <v>44672</v>
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2">
-        <v>44672</v>
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2">
-        <v>44672</v>
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="2">
-        <v>44672</v>
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="2">
-        <v>44672</v>
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>208</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>211</v>
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="2">
-        <v>44672</v>
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="2">
-        <v>44672</v>
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="2">
-        <v>44672</v>
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="2">
-        <v>44672</v>
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="2">
-        <v>44672</v>
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="2">
-        <v>44672</v>
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="2">
-        <v>44672</v>
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="2">
-        <v>44672</v>
+        <v>80</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="2">
-        <v>44672</v>
+        <v>83</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="2">
-        <v>44672</v>
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="2">
-        <v>44672</v>
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>212</v>
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="2">
-        <v>44672</v>
+      <c r="H25" t="s">
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="2">
-        <v>44672</v>
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="2">
-        <v>44672</v>
+        <v>96</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="2">
-        <v>44672</v>
+        <v>101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="2">
-        <v>44672</v>
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
         <v>22</v>
       </c>
-      <c r="B30">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" t="s">
-        <v>213</v>
-      </c>
-      <c r="I30" t="s">
-        <v>208</v>
-      </c>
-      <c r="J30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="21">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="2">
-        <v>44672</v>
-      </c>
-      <c r="I31" t="s">
-        <v>208</v>
-      </c>
-      <c r="J31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="21">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H32" s="2">
-        <v>44672</v>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="2">
-        <v>44672</v>
+        <v>111</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="2">
-        <v>44672</v>
+        <v>115</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" t="s">
-        <v>204</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H35" s="2">
-        <v>44672</v>
+        <v>116</v>
+      </c>
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="2">
-        <v>44672</v>
+        <v>120</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>123</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
       </c>
       <c r="H37" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>125</v>
+      </c>
+      <c r="G38" t="s">
+        <v>126</v>
       </c>
       <c r="H38" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F39" t="s">
-        <v>111</v>
+        <v>129</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J39" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
         <v>22</v>
       </c>
-      <c r="B40">
-        <v>57</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
         <v>112</v>
       </c>
-      <c r="D40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" t="s">
-        <v>111</v>
-      </c>
-      <c r="H40" s="2">
-        <v>44672</v>
+      <c r="H40" t="s">
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="2">
-        <v>44672</v>
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
-      </c>
-      <c r="H42" s="2">
-        <v>44672</v>
+        <v>83</v>
+      </c>
+      <c r="G42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>138</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" s="2">
-        <v>44672</v>
+        <v>139</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="21">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" s="2">
-        <v>44672</v>
+        <v>141</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E45" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>144</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J45" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
         <v>22</v>
       </c>
-      <c r="B46">
-        <v>63</v>
-      </c>
-      <c r="C46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
-      </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>147</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
       </c>
       <c r="H46" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>149</v>
+      </c>
+      <c r="E47" t="s">
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>133</v>
-      </c>
-      <c r="H47" s="2">
-        <v>44672</v>
+        <v>77</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B48">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="2">
-        <v>44672</v>
+        <v>153</v>
+      </c>
+      <c r="G48" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B49">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="F49" t="s">
-        <v>140</v>
-      </c>
-      <c r="H49" s="2">
-        <v>44672</v>
+        <v>156</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B50">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
-      </c>
-      <c r="H50" s="2">
-        <v>44672</v>
+        <v>159</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B51">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H51" s="2">
-        <v>44672</v>
+        <v>93</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="21">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B52">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52" t="s">
-        <v>148</v>
-      </c>
-      <c r="H52" s="2">
-        <v>44672</v>
+        <v>163</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>208</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="21">
+        <v>15</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B53">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H53" s="2">
-        <v>44672</v>
+        <v>165</v>
+      </c>
+      <c r="E53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="21">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B54">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
         <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="2">
-        <v>44672</v>
+        <v>213</v>
+      </c>
+      <c r="G54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B55">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="F55" t="s">
-        <v>155</v>
-      </c>
-      <c r="H55" s="2">
-        <v>44672</v>
+        <v>117</v>
+      </c>
+      <c r="G55" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J55" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B56">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" s="2">
-        <v>44672</v>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>126</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>208</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>216</v>
+        <v>15</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B57">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F57" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" s="2">
-        <v>44672</v>
+        <v>173</v>
+      </c>
+      <c r="G57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J57" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B58">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
-      </c>
-      <c r="H58" s="2">
-        <v>44672</v>
+        <v>123</v>
+      </c>
+      <c r="G58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J58" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="21">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B59">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" t="s">
-        <v>203</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
+        <v>178</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G59" t="s">
+        <v>98</v>
       </c>
       <c r="H59" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="J59" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B60">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H60" s="2">
-        <v>44672</v>
+        <v>180</v>
+      </c>
+      <c r="F60" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J60" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B61">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>171</v>
-      </c>
-      <c r="H61" s="2">
-        <v>44672</v>
+        <v>182</v>
+      </c>
+      <c r="G61" t="s">
+        <v>183</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B62">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>174</v>
-      </c>
-      <c r="H62" s="2">
-        <v>44672</v>
+        <v>106</v>
+      </c>
+      <c r="G62" t="s">
+        <v>48</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B63">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
-      </c>
-      <c r="H63" s="2">
-        <v>44672</v>
+        <v>189</v>
+      </c>
+      <c r="G63" t="s">
+        <v>190</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B64">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>179</v>
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>193</v>
+      </c>
+      <c r="G64" t="s">
+        <v>28</v>
       </c>
       <c r="H64" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B65">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>196</v>
+      </c>
+      <c r="G65" t="s">
+        <v>28</v>
       </c>
       <c r="H65" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="J65" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>156</v>
-      </c>
-      <c r="B66">
-        <v>85</v>
-      </c>
-      <c r="C66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" t="s">
-        <v>181</v>
-      </c>
-      <c r="F66" t="s">
-        <v>183</v>
-      </c>
-      <c r="H66" t="s">
-        <v>209</v>
-      </c>
-      <c r="I66" t="s">
-        <v>208</v>
-      </c>
-      <c r="J66" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" t="s">
-        <v>185</v>
-      </c>
-      <c r="E67" t="s">
-        <v>204</v>
-      </c>
-      <c r="F67" t="s">
-        <v>57</v>
-      </c>
-      <c r="H67" s="2">
-        <v>44672</v>
-      </c>
-      <c r="I67" t="s">
-        <v>208</v>
-      </c>
-      <c r="J67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" t="s">
-        <v>188</v>
-      </c>
-      <c r="F68" t="s">
-        <v>189</v>
-      </c>
-      <c r="H68" s="2">
-        <v>44672</v>
-      </c>
-      <c r="I68" t="s">
-        <v>208</v>
-      </c>
-      <c r="J68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69">
-        <v>89</v>
-      </c>
-      <c r="C69" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" t="s">
-        <v>191</v>
-      </c>
-      <c r="E69" t="s">
-        <v>204</v>
-      </c>
-      <c r="F69" t="s">
-        <v>192</v>
-      </c>
-      <c r="H69" s="2">
-        <v>44672</v>
-      </c>
-      <c r="I69" t="s">
-        <v>208</v>
-      </c>
-      <c r="J69" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>186</v>
-      </c>
-      <c r="B70">
-        <v>90</v>
-      </c>
-      <c r="C70" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" t="s">
-        <v>194</v>
-      </c>
-      <c r="F70" t="s">
-        <v>195</v>
-      </c>
-      <c r="H70" s="2">
-        <v>44672</v>
-      </c>
-      <c r="I70" t="s">
-        <v>208</v>
-      </c>
-      <c r="J70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" t="s">
-        <v>186</v>
-      </c>
-      <c r="B71">
-        <v>91</v>
-      </c>
-      <c r="C71" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" t="s">
-        <v>203</v>
-      </c>
-      <c r="F71" t="s">
-        <v>198</v>
-      </c>
-      <c r="H71" s="2">
-        <v>44672</v>
-      </c>
-      <c r="I71" t="s">
-        <v>208</v>
-      </c>
-      <c r="J71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" t="s">
-        <v>186</v>
-      </c>
-      <c r="B72">
-        <v>92</v>
-      </c>
-      <c r="C72" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" t="s">
-        <v>200</v>
-      </c>
-      <c r="E72" t="s">
-        <v>203</v>
-      </c>
-      <c r="F72" t="s">
-        <v>201</v>
-      </c>
-      <c r="H72" s="2">
-        <v>44672</v>
-      </c>
-      <c r="I72" t="s">
-        <v>208</v>
-      </c>
-      <c r="J72" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/resource/kobe_books/shop_list.xlsx
+++ b/resource/kobe_books/shop_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/kobe_books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E11FFD5-1621-9F4A-B757-531F2D00B5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019BEDD9-CFE1-2541-ACE8-1A7434F327DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="4000" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="3540" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="216">
   <si>
     <t>ページ</t>
   </si>
@@ -682,6 +682,13 @@
   </si>
   <si>
     <t>11:30～14:00、17:00～22:30</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>お知らせ画像</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1637,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1649,9 +1656,10 @@
     <col min="4" max="4" width="53.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1682,8 +1690,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1711,8 +1722,11 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1740,8 +1754,11 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1769,11 +1786,14 @@
       <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1801,8 +1821,11 @@
       <c r="J5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1830,8 +1853,11 @@
       <c r="J6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1859,8 +1885,11 @@
       <c r="J7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1891,8 +1920,11 @@
       <c r="J8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1920,8 +1952,11 @@
       <c r="J9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1952,8 +1987,11 @@
       <c r="J10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1981,8 +2019,11 @@
       <c r="J11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2013,8 +2054,11 @@
       <c r="J12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2042,8 +2086,11 @@
       <c r="J13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2074,8 +2121,11 @@
       <c r="J14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2103,8 +2153,11 @@
       <c r="J15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2132,8 +2185,11 @@
       <c r="J16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2161,8 +2217,11 @@
       <c r="J17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="21">
+      <c r="K17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="21">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2190,8 +2249,11 @@
       <c r="J18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2219,8 +2281,11 @@
       <c r="J19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2248,8 +2313,11 @@
       <c r="J20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="21">
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="21">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2277,8 +2345,11 @@
       <c r="J21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2306,8 +2377,11 @@
       <c r="J22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2335,8 +2409,11 @@
       <c r="J23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2364,8 +2441,11 @@
       <c r="J24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2393,8 +2473,11 @@
       <c r="J25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2422,8 +2505,11 @@
       <c r="J26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2451,8 +2537,11 @@
       <c r="J27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2480,8 +2569,11 @@
       <c r="J28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2509,8 +2601,11 @@
       <c r="J29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="J30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2567,8 +2665,11 @@
       <c r="J31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2599,8 +2700,11 @@
       <c r="J32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="21">
+      <c r="K32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="21">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2628,8 +2732,11 @@
       <c r="J33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2657,8 +2764,11 @@
       <c r="J34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2686,8 +2796,11 @@
       <c r="J35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2715,8 +2828,11 @@
       <c r="J36" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2744,8 +2860,11 @@
       <c r="J37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2776,8 +2895,11 @@
       <c r="J38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2805,8 +2927,11 @@
       <c r="J39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2837,8 +2962,11 @@
       <c r="J40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2866,8 +2994,11 @@
       <c r="J41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2895,8 +3026,11 @@
       <c r="J42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2927,8 +3061,11 @@
       <c r="J43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="21">
+      <c r="K43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="21">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2956,8 +3093,11 @@
       <c r="J44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2988,8 +3128,11 @@
       <c r="J45" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3020,8 +3163,11 @@
       <c r="J46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3052,8 +3198,11 @@
       <c r="J47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -3081,8 +3230,11 @@
       <c r="J48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -3110,8 +3262,11 @@
       <c r="J49" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -3139,8 +3294,11 @@
       <c r="J50" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -3168,8 +3326,11 @@
       <c r="J51" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="21">
+      <c r="K51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="21">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -3197,8 +3358,11 @@
       <c r="J52" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>150</v>
       </c>
@@ -3229,8 +3393,11 @@
       <c r="J53" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="21">
+      <c r="K53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="21">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3258,8 +3425,11 @@
       <c r="J54" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>150</v>
       </c>
@@ -3287,8 +3457,11 @@
       <c r="J55" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -3316,8 +3489,11 @@
       <c r="J56" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>170</v>
       </c>
@@ -3345,8 +3521,11 @@
       <c r="J57" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -3374,8 +3553,11 @@
       <c r="J58" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="21">
+      <c r="K58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="21">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -3403,8 +3585,11 @@
       <c r="J59" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -3432,8 +3617,11 @@
       <c r="J60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>170</v>
       </c>
@@ -3464,8 +3652,11 @@
       <c r="J61" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -3496,8 +3687,11 @@
       <c r="J62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -3525,8 +3719,11 @@
       <c r="J63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>186</v>
       </c>
@@ -3557,8 +3754,11 @@
       <c r="J64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -3585,6 +3785,9 @@
       </c>
       <c r="J65" t="s">
         <v>15</v>
+      </c>
+      <c r="K65" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/resource/kobe_books/shop_list.xlsx
+++ b/resource/kobe_books/shop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/kobe_books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019BEDD9-CFE1-2541-ACE8-1A7434F327DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ABB808-0508-A048-A3D2-05D6A755B203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="3540" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8080" yWindow="3580" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="215">
   <si>
     <t>ページ</t>
   </si>
@@ -587,12 +587,6 @@
   </si>
   <si>
     <t>神戸市中央区下山手通2-17-10ライオンビル三宮館3F</t>
-  </si>
-  <si>
-    <t>18:00～23:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日曜 </t>
   </si>
   <si>
     <t>Voice</t>
@@ -690,6 +684,9 @@
       <t xml:space="preserve">ガゾウ </t>
     </rPh>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>19:00〜翌1:00</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1691,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1723,7 +1720,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1755,7 +1752,7 @@
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21">
@@ -1781,16 +1778,16 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1822,7 +1819,7 @@
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1833,7 +1830,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -1854,7 +1851,7 @@
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1886,7 +1883,7 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1921,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1953,7 +1950,7 @@
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1988,7 +1985,7 @@
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2020,7 +2017,7 @@
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2055,7 +2052,7 @@
         <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2087,7 +2084,7 @@
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2098,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -2122,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2154,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2186,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2218,7 +2215,7 @@
         <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21">
@@ -2235,7 +2232,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
         <v>28</v>
@@ -2250,7 +2247,7 @@
         <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2282,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2314,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="21">
@@ -2331,7 +2328,7 @@
         <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
         <v>48</v>
@@ -2346,7 +2343,7 @@
         <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2378,7 +2375,7 @@
         <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2389,7 +2386,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
@@ -2410,7 +2407,7 @@
         <v>15</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2442,7 +2439,7 @@
         <v>15</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2474,7 +2471,7 @@
         <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2506,7 +2503,7 @@
         <v>15</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2538,7 +2535,7 @@
         <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2570,7 +2567,7 @@
         <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2602,7 +2599,7 @@
         <v>15</v>
       </c>
       <c r="K29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2613,7 +2610,7 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
         <v>104</v>
@@ -2634,7 +2631,7 @@
         <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2645,7 +2642,7 @@
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
         <v>105</v>
@@ -2666,7 +2663,7 @@
         <v>15</v>
       </c>
       <c r="K31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2701,7 +2698,7 @@
         <v>15</v>
       </c>
       <c r="K32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="21">
@@ -2718,7 +2715,7 @@
         <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G33" t="s">
         <v>112</v>
@@ -2733,7 +2730,7 @@
         <v>15</v>
       </c>
       <c r="K33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2765,7 +2762,7 @@
         <v>15</v>
       </c>
       <c r="K34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2776,7 +2773,7 @@
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D35" t="s">
         <v>116</v>
@@ -2797,7 +2794,7 @@
         <v>15</v>
       </c>
       <c r="K35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2829,7 +2826,7 @@
         <v>15</v>
       </c>
       <c r="K36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2861,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="K37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2872,7 +2869,7 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
         <v>124</v>
@@ -2896,7 +2893,7 @@
         <v>15</v>
       </c>
       <c r="K38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2928,7 +2925,7 @@
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2939,7 +2936,7 @@
         <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
         <v>130</v>
@@ -2963,7 +2960,7 @@
         <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2995,7 +2992,7 @@
         <v>15</v>
       </c>
       <c r="K41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3027,7 +3024,7 @@
         <v>15</v>
       </c>
       <c r="K42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3062,7 +3059,7 @@
         <v>15</v>
       </c>
       <c r="K43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="21">
@@ -3079,7 +3076,7 @@
         <v>141</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G44" t="s">
         <v>48</v>
@@ -3094,7 +3091,7 @@
         <v>15</v>
       </c>
       <c r="K44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3129,7 +3126,7 @@
         <v>15</v>
       </c>
       <c r="K45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3164,7 +3161,7 @@
         <v>15</v>
       </c>
       <c r="K46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3199,7 +3196,7 @@
         <v>15</v>
       </c>
       <c r="K47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3231,7 +3228,7 @@
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3263,7 +3260,7 @@
         <v>15</v>
       </c>
       <c r="K49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3295,7 +3292,7 @@
         <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3327,7 +3324,7 @@
         <v>15</v>
       </c>
       <c r="K51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="21">
@@ -3344,7 +3341,7 @@
         <v>163</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G52" t="s">
         <v>48</v>
@@ -3359,7 +3356,7 @@
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3394,7 +3391,7 @@
         <v>15</v>
       </c>
       <c r="K53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="21">
@@ -3411,7 +3408,7 @@
         <v>167</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G54" t="s">
         <v>48</v>
@@ -3426,7 +3423,7 @@
         <v>15</v>
       </c>
       <c r="K54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3458,7 +3455,7 @@
         <v>15</v>
       </c>
       <c r="K55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3469,7 +3466,7 @@
         <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D56" t="s">
         <v>171</v>
@@ -3490,7 +3487,7 @@
         <v>15</v>
       </c>
       <c r="K56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3501,7 +3498,7 @@
         <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D57" t="s">
         <v>172</v>
@@ -3522,7 +3519,7 @@
         <v>15</v>
       </c>
       <c r="K57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3554,7 +3551,7 @@
         <v>15</v>
       </c>
       <c r="K58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="21">
@@ -3571,7 +3568,7 @@
         <v>178</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G59" t="s">
         <v>98</v>
@@ -3586,7 +3583,7 @@
         <v>15</v>
       </c>
       <c r="K59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3618,7 +3615,7 @@
         <v>15</v>
       </c>
       <c r="K60" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3629,7 +3626,7 @@
         <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
         <v>181</v>
@@ -3653,7 +3650,7 @@
         <v>15</v>
       </c>
       <c r="K61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3688,7 +3685,7 @@
         <v>15</v>
       </c>
       <c r="K62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3705,10 +3702,10 @@
         <v>188</v>
       </c>
       <c r="F63" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="G63" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="H63" t="s">
         <v>15</v>
@@ -3720,7 +3717,7 @@
         <v>15</v>
       </c>
       <c r="K63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3731,16 +3728,16 @@
         <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E64" t="s">
         <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G64" t="s">
         <v>28</v>
@@ -3755,7 +3752,7 @@
         <v>15</v>
       </c>
       <c r="K64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3766,13 +3763,13 @@
         <v>86</v>
       </c>
       <c r="C65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" t="s">
         <v>194</v>
-      </c>
-      <c r="D65" t="s">
-        <v>195</v>
-      </c>
-      <c r="F65" t="s">
-        <v>196</v>
       </c>
       <c r="G65" t="s">
         <v>28</v>
@@ -3787,7 +3784,7 @@
         <v>15</v>
       </c>
       <c r="K65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/resource/kobe_books/shop_list.xlsx
+++ b/resource/kobe_books/shop_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/kobe_books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ABB808-0508-A048-A3D2-05D6A755B203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715BB1B0-9FC0-ED4D-BC45-BFB03B1C39E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8080" yWindow="3580" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,10 +671,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>11:00～15:00、17:00～22:00</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>11:30～14:00、17:00～22:30</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -687,6 +683,10 @@
   </si>
   <si>
     <t>19:00〜翌1:00</t>
+  </si>
+  <si>
+    <t>11:00～14:00、 17:00～22:00</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1643,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1688,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3408,7 +3408,7 @@
         <v>167</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G54" t="s">
         <v>48</v>
@@ -3568,7 +3568,7 @@
         <v>178</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G59" t="s">
         <v>98</v>
@@ -3702,7 +3702,7 @@
         <v>188</v>
       </c>
       <c r="F63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G63" t="s">
         <v>98</v>
